--- a/CInquiryManual.xlsx
+++ b/CInquiryManual.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="150" firstSheet="0" activeTab="1"/>
+    <workbookView windowWidth="15870" windowHeight="8370" tabRatio="455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KeyWord" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="KeyWord" sheetId="1" r:id="rId1"/>
+    <sheet name="SimpleIntroduction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>关键字</t>
   </si>
@@ -49,15 +49,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">integer</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>integer</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：整数</t>
+        <charset val="134"/>
+      </rPr>
+      <t>：整数</t>
     </r>
   </si>
   <si>
@@ -89,15 +94,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">if</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">条件判断时，不符合条件的情况</t>
+        <charset val="134"/>
+      </rPr>
+      <t>条件判断时，不符合条件的情况</t>
     </r>
   </si>
   <si>
@@ -150,36 +160,46 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">type define</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type define</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：类型定义</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">类型转换</t>
+        <charset val="134"/>
+      </rPr>
+      <t>：类型定义</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型转换</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">代替</t>
+        <charset val="134"/>
+      </rPr>
+      <t>代替</t>
     </r>
   </si>
   <si>
@@ -187,15 +207,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">character</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>character</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：字符</t>
+        <charset val="134"/>
+      </rPr>
+      <t>：字符</t>
     </r>
   </si>
   <si>
@@ -228,23 +253,28 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">复杂数据类型：联合体</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复杂数据类型：联合体</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">共用体</t>
+        <charset val="134"/>
+      </rPr>
+      <t>共用体</t>
     </r>
   </si>
   <si>
@@ -300,15 +330,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">for</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">循环</t>
+        <charset val="134"/>
+      </rPr>
+      <t>循环</t>
     </r>
   </si>
   <si>
@@ -337,15 +372,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">switch</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>switch</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中，没有选择时的选择</t>
+        <charset val="134"/>
+      </rPr>
+      <t>中，没有选择时的选择</t>
     </r>
   </si>
   <si>
@@ -374,15 +414,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> volatile</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">提醒编译器它后面所定义的变量
+        <charset val="134"/>
+      </rPr>
+      <t>提醒编译器它后面所定义的变量
 随时都有可能改变，因此编译后的程序每
 次需要存储或读取这个变量的时候，都会
 直接从变量地址中读取数据。</t>
@@ -396,15 +441,20 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">do...while</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>do...while</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">循环</t>
+        <charset val="134"/>
+      </rPr>
+      <t>循环</t>
     </r>
   </si>
   <si>
@@ -433,147 +483,1014 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">while</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">循环</t>
-    </r>
+        <charset val="134"/>
+      </rPr>
+      <t>循环</t>
+    </r>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>FeaturesIntroduction</t>
+  </si>
+  <si>
+    <t>ReturnValue</t>
+  </si>
+  <si>
+    <t>HeadFile</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>ClassIntroduction</t>
+  </si>
+  <si>
+    <t>HeadFileIntroduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5238095238095"/>
+    <col min="2" max="2" width="22.2285714285714"/>
+    <col min="3" max="3" width="33.2095238095238"/>
+    <col min="4" max="1025" width="11.5238095238095"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -595,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -617,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -628,7 +1545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -639,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -650,7 +1567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -661,7 +1578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -672,7 +1589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -683,7 +1600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -694,7 +1611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -705,7 +1622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -716,7 +1633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -727,7 +1644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -738,18 +1655,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="24" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -760,7 +1677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -771,7 +1688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -782,7 +1699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -793,7 +1710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -804,7 +1721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -815,7 +1732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -826,7 +1743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -837,7 +1754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -848,7 +1765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -859,7 +1776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -870,7 +1787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -881,18 +1798,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="72.75" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -903,7 +1820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -914,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="17.9" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -925,7 +1842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="26.85" customHeight="1" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -936,12 +1853,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" ht="36.55" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -949,25 +1865,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="5" width="11.5238095238095"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
+    <col min="8" max="1025" width="11.5238095238095"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CInquiryManual.xlsx
+++ b/CInquiryManual.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370" tabRatio="455" activeTab="1"/>
+    <workbookView windowWidth="12210" windowHeight="6405" tabRatio="455" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KeyWord" sheetId="1" r:id="rId1"/>
-    <sheet name="SimpleIntroduction" sheetId="2" r:id="rId2"/>
+    <sheet name="charProgressFunction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>关键字</t>
   </si>
@@ -518,7 +518,100 @@
     <t>ClassIntroduction</t>
   </si>
   <si>
-    <t>HeadFileIntroduction</t>
+    <t>FunctionStatement</t>
+  </si>
+  <si>
+    <t>ArgementDescription</t>
+  </si>
+  <si>
+    <t>isalnum</t>
+  </si>
+  <si>
+    <t>测试参数ch是否是字母
+或者数字</t>
+  </si>
+  <si>
+    <r>
+      <t>返回非零数：是；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回0：不是</t>
+    </r>
+  </si>
+  <si>
+    <t>ctype.h</t>
+  </si>
+  <si>
+    <t>字符测试</t>
+  </si>
+  <si>
+    <t>测试单个字符</t>
+  </si>
+  <si>
+    <t>int isalnum(int  ch)</t>
+  </si>
+  <si>
+    <r>
+      <t>ch:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试的参数</t>
+    </r>
+  </si>
+  <si>
+    <t>isalpha</t>
+  </si>
+  <si>
+    <r>
+      <t>测试参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否是字母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>int isalpha(int  ch)</t>
   </si>
 </sst>
 </file>
@@ -526,8 +619,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -539,12 +632,107 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,22 +747,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -585,105 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,13 +791,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -708,55 +801,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,127 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,21 +992,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -935,23 +1013,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,11 +1043,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,147 +1083,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,10 +1250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1491,365 +1593,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="24" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="16" ht="24.75" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" ht="72.75" spans="1:3">
-      <c r="A29" s="3" t="s">
+    <row r="29" ht="74.25" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="17.9" customHeight="1" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" ht="26.85" customHeight="1" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1867,45 +1969,118 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
-    <col min="3" max="5" width="11.5238095238095"/>
+    <col min="2" max="2" width="30.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="11.5238095238095"/>
     <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="1025" width="11.5238095238095"/>
+    <col min="7" max="7" width="31.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="20.4285714285714" customWidth="1"/>
+    <col min="9" max="1025" width="11.5238095238095"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="25.5" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
